--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_User_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_User_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">changePassword!$A$1:$T$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">changeUserRoll!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">changeUserRoll!$A$1:$T$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">findAllUser!$A$1:$T$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">findUserByEmail!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">findUserById!$A$1:$T$38</definedName>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="174">
   <si>
     <r>
       <rPr>
@@ -1482,12 +1482,6 @@
     <t>right old Password</t>
   </si>
   <si>
-    <t>wrong olf Password</t>
-  </si>
-  <si>
-    <t>invalid user Id</t>
-  </si>
-  <si>
     <t>Application Context Initialized</t>
   </si>
   <si>
@@ -1503,10 +1497,7 @@
     <t>role code</t>
   </si>
   <si>
-    <t>UTCID05</t>
-  </si>
-  <si>
-    <t>UTCID06</t>
+    <t>wrong old Password</t>
   </si>
 </sst>
 </file>
@@ -3749,6 +3740,102 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -3767,109 +3854,13 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4099,9 +4090,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4128,10 +4117,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4552,10 +4541,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4809,9 +4798,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4838,7 +4825,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5266,7 +5253,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6109,7 +6096,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6133,55 +6120,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6190,116 +6177,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>26</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
+      <c r="A7" s="235">
         <f>COUNTIF(F24:HF24,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F24:HF24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E23:HF23,"N")</f>
         <v>2</v>
@@ -6312,15 +6299,15 @@
         <f>COUNTIF(E23:HF23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="227">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HI9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6366,7 +6353,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -6474,9 +6461,7 @@
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>76</v>
-      </c>
+      <c r="G18" s="99"/>
       <c r="H18" s="99"/>
       <c r="I18" s="99" t="s">
         <v>76</v>
@@ -6513,7 +6498,7 @@
       <c r="B21" s="114"/>
       <c r="C21" s="117"/>
       <c r="D21" s="116" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E21" s="118"/>
       <c r="F21" s="99"/>
@@ -6540,11 +6525,11 @@
       <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="180"/>
       <c r="F23" s="124" t="s">
         <v>39</v>
@@ -6561,11 +6546,11 @@
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="125"/>
       <c r="F24" s="126" t="s">
         <v>43</v>
@@ -6582,11 +6567,11 @@
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
       <c r="E25" s="118"/>
       <c r="F25" s="127">
         <v>39139</v>
@@ -6603,11 +6588,11 @@
     </row>
     <row r="26" spans="1:10" ht="11.25" thickBot="1">
       <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
+      <c r="B26" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="245"/>
       <c r="E26" s="128"/>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
@@ -6622,6 +6607,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6630,25 +6634,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:I23">
@@ -6672,10 +6657,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6699,55 +6684,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6756,111 +6741,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>29</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F24:HH24,"P")</f>
-        <v>6</v>
-      </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F24:HH24,"F")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F18:HC18,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E23:HH23,"N")</f>
+        <f>COUNTIF(E17:HC17,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E23:HH23,"A")</f>
-        <v>5</v>
+        <f>COUNTIF(E17:HC17,"A")</f>
+        <v>0</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E23:HH23,"B")</f>
+        <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HK8)</f>
-        <v>6</v>
-      </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HF8)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6873,24 +6858,9 @@
       <c r="F8" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
@@ -6903,27 +6873,17 @@
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="M10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -6932,11 +6892,6 @@
       <c r="D11" s="97"/>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -6947,11 +6902,6 @@
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
@@ -6964,281 +6914,111 @@
       <c r="F13" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
-      <c r="B14" s="95"/>
+      <c r="B14" s="95" t="s">
+        <v>171</v>
+      </c>
       <c r="C14" s="96"/>
-      <c r="D14" s="97">
-        <v>-1</v>
-      </c>
+      <c r="D14" s="97"/>
       <c r="E14" s="103"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="N14" s="89"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E15" s="103"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99" t="s">
+      <c r="F15" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="99"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="137" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B17" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="124" t="s">
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="139"/>
+      <c r="B18" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="139"/>
+      <c r="B19" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="127">
+      <c r="C19" s="244"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="127">
         <v>39139</v>
       </c>
-      <c r="G25" s="127">
-        <v>39140</v>
-      </c>
-      <c r="H25" s="127">
-        <v>39141</v>
-      </c>
-      <c r="I25" s="127">
-        <v>39142</v>
-      </c>
-      <c r="J25" s="127">
-        <v>39143</v>
-      </c>
-      <c r="K25" s="127">
-        <v>39144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="11.25" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A20" s="140"/>
+      <c r="B20" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-    </row>
-    <row r="27" spans="1:11" ht="11.25" thickTop="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="84"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -7247,32 +7027,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:K23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:K22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F16">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7290,7 +7053,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7314,55 +7077,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -7371,116 +7134,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>27</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
+      <c r="A7" s="235">
         <f>COUNTIF(F27:HE27,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F27:HE27,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E26:HE26,"N")</f>
         <v>2</v>
@@ -7493,15 +7256,15 @@
         <f>COUNTIF(E26:HE26,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="227">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HH9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7543,7 +7306,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -7593,8 +7356,8 @@
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>169</v>
+      <c r="D15" s="97">
+        <v>-1</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
@@ -7646,7 +7409,7 @@
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="99"/>
@@ -7741,11 +7504,11 @@
       <c r="A26" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="210" t="s">
+      <c r="B26" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
       <c r="E26" s="180"/>
       <c r="F26" s="124" t="s">
         <v>39</v>
@@ -7759,11 +7522,11 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="139"/>
-      <c r="B27" s="211" t="s">
+      <c r="B27" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
       <c r="E27" s="125"/>
       <c r="F27" s="126" t="s">
         <v>43</v>
@@ -7777,11 +7540,11 @@
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1">
       <c r="A28" s="139"/>
-      <c r="B28" s="212" t="s">
+      <c r="B28" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
       <c r="E28" s="118"/>
       <c r="F28" s="127">
         <v>39139</v>
@@ -7795,11 +7558,11 @@
     </row>
     <row r="29" spans="1:9" ht="11.25" thickBot="1">
       <c r="A29" s="140"/>
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
       <c r="E29" s="128"/>
       <c r="F29" s="129"/>
       <c r="G29" s="129"/>
@@ -7813,6 +7576,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -7821,25 +7603,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H26">
@@ -8636,11 +8399,11 @@
       </c>
       <c r="F12" s="48">
         <f>saveUser!L6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="47">
         <f>saveUser!M6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="47">
         <f>saveUser!N6</f>
@@ -8840,7 +8603,7 @@
       </c>
       <c r="C18" s="47">
         <f>changeUserRoll!A6</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="47">
         <f>changeUserRoll!C6</f>
@@ -8856,7 +8619,7 @@
       </c>
       <c r="G18" s="47">
         <f>changeUserRoll!M6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="47">
         <f>changeUserRoll!N6</f>
@@ -8864,7 +8627,7 @@
       </c>
       <c r="I18" s="47">
         <f>changeUserRoll!O6</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8921,7 +8684,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -8933,11 +8696,11 @@
       </c>
       <c r="F21" s="50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -8945,7 +8708,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9002,7 +8765,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>44.444444444444443</v>
+        <v>59.090909090909093</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -9014,7 +8777,7 @@
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>55.555555555555557</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -9071,7 +8834,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="H8" sqref="H8:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9095,55 +8858,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9152,111 +8915,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>28</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F24:HD24,"P")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F24:HC24,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F24:HD24,"F")</f>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F24:HC24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E23:HD23,"N")</f>
-        <v>1</v>
+        <f>COUNTIF(E23:HC23,"N")</f>
+        <v>2</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E23:HD23,"A")</f>
-        <v>1</v>
+        <f>COUNTIF(E23:HC23,"A")</f>
+        <v>0</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E23:HD23,"B")</f>
+        <f>COUNTIF(E23:HC23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HG8)</f>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HF8)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9272,9 +9035,8 @@
       <c r="G8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="82"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
@@ -9294,12 +9056,12 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="I10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -9342,7 +9104,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="99"/>
-      <c r="J14" s="89"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
@@ -9365,7 +9127,6 @@
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1">
       <c r="A17" s="136"/>
@@ -9386,10 +9147,10 @@
         <v>147</v>
       </c>
       <c r="E18" s="103"/>
-      <c r="F18" s="99" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="99"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
@@ -9399,10 +9160,10 @@
         <v>36</v>
       </c>
       <c r="E19" s="103"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
+      <c r="F19" s="99" t="s">
         <v>76</v>
       </c>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="136"/>
@@ -9431,38 +9192,36 @@
       <c r="B22" s="114"/>
       <c r="C22" s="115"/>
       <c r="D22" s="116" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="181"/>
       <c r="F22" s="99"/>
-      <c r="G22" s="99" t="s">
-        <v>76</v>
-      </c>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
       <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="180"/>
       <c r="F23" s="124" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
       <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+      <c r="B24" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="125"/>
       <c r="F24" s="126" t="s">
         <v>43</v>
@@ -9473,11 +9232,11 @@
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
       <c r="E25" s="118"/>
       <c r="F25" s="127">
         <v>39139</v>
@@ -9488,11 +9247,11 @@
     </row>
     <row r="26" spans="1:7" ht="11.25" thickBot="1">
       <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
+      <c r="B26" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="245"/>
       <c r="E26" s="128"/>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
@@ -9505,6 +9264,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9513,23 +9289,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:G24">
@@ -9556,7 +9315,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9580,55 +9339,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9637,90 +9396,90 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>27</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
+      <c r="A6" s="235">
         <f>COUNTIF(F25:HE25,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
         <f>COUNTIF(F25:HE25,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
         <f>COUNTIF(E24:HE24,"N")</f>
         <v>1</v>
@@ -9733,15 +9492,15 @@
         <f>COUNTIF(E24:HE24,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9783,7 +9542,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9938,7 +9697,7 @@
       <c r="B22" s="114"/>
       <c r="C22" s="117"/>
       <c r="D22" s="116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="118"/>
       <c r="F22" s="99"/>
@@ -9961,11 +9720,11 @@
       <c r="A24" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="180"/>
       <c r="F24" s="124" t="s">
         <v>39</v>
@@ -9979,11 +9738,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="125"/>
       <c r="F25" s="126" t="s">
         <v>43</v>
@@ -9997,11 +9756,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
       <c r="E26" s="118"/>
       <c r="F26" s="127">
         <v>39139</v>
@@ -10015,11 +9774,11 @@
     </row>
     <row r="27" spans="1:8" ht="11.25" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
       <c r="E27" s="128"/>
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
@@ -10033,6 +9792,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10041,23 +9817,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
@@ -10084,7 +9843,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10108,55 +9867,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10165,90 +9924,90 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>26</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
+      <c r="A6" s="235">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>2</v>
@@ -10261,15 +10020,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10315,7 +10074,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -10499,7 +10258,7 @@
       <c r="B23" s="114"/>
       <c r="C23" s="117"/>
       <c r="D23" s="116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" s="118"/>
       <c r="F23" s="99"/>
@@ -10528,11 +10287,11 @@
       <c r="A25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="180"/>
       <c r="F25" s="124" t="s">
         <v>39</v>
@@ -10549,11 +10308,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="125"/>
       <c r="F26" s="126" t="s">
         <v>43</v>
@@ -10570,11 +10329,11 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="139"/>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="244"/>
       <c r="E27" s="118"/>
       <c r="F27" s="127">
         <v>39139</v>
@@ -10591,11 +10350,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="140"/>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="245"/>
       <c r="E28" s="128"/>
       <c r="F28" s="129"/>
       <c r="G28" s="129"/>
@@ -10610,6 +10369,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10618,23 +10394,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:I26">
@@ -10661,7 +10420,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10685,55 +10444,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10742,90 +10501,90 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>26</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
+      <c r="A6" s="235">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>2</v>
@@ -10838,15 +10597,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10892,7 +10651,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -11076,7 +10835,7 @@
       <c r="B23" s="114"/>
       <c r="C23" s="117"/>
       <c r="D23" s="116" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="118"/>
       <c r="F23" s="99"/>
@@ -11105,11 +10864,11 @@
       <c r="A25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="180"/>
       <c r="F25" s="124" t="s">
         <v>39</v>
@@ -11126,11 +10885,11 @@
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="139"/>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="125"/>
       <c r="F26" s="126" t="s">
         <v>43</v>
@@ -11147,11 +10906,11 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="139"/>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="244"/>
       <c r="E27" s="118"/>
       <c r="F27" s="127">
         <v>39139</v>
@@ -11168,11 +10927,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="140"/>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="245"/>
       <c r="E28" s="128"/>
       <c r="F28" s="129"/>
       <c r="G28" s="129"/>
@@ -11187,6 +10946,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11195,23 +10971,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25">
@@ -11262,55 +11021,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -11319,116 +11078,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
         <v>300</v>
       </c>
-      <c r="D4" s="232"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>29</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
+      <c r="A7" s="235">
         <f>COUNTIF(F17:HC17,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F17:HC17,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E16:HC16,"N")</f>
         <v>1</v>
@@ -11441,15 +11200,15 @@
         <f>COUNTIF(E16:HC16,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="227">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11483,7 +11242,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -11533,11 +11292,11 @@
       <c r="A16" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
       <c r="E16" s="180"/>
       <c r="F16" s="124" t="s">
         <v>39</v>
@@ -11545,11 +11304,11 @@
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="139"/>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="125"/>
       <c r="F17" s="126" t="s">
         <v>43</v>
@@ -11557,11 +11316,11 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="139"/>
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="244"/>
       <c r="E18" s="118"/>
       <c r="F18" s="127">
         <v>39139</v>
@@ -11569,11 +11328,11 @@
     </row>
     <row r="19" spans="1:6" ht="11.25" thickBot="1">
       <c r="A19" s="140"/>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="128"/>
       <c r="F19" s="129"/>
     </row>
@@ -11585,6 +11344,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11593,25 +11371,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_User_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_User_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -87,14 +87,14 @@
     <definedName name="getLessonVersion" localSheetId="4">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="9">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">changePassword!$A$1:$T$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">changeUserRoll!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">changePassword!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">changeUserRoll!$A$1:$T$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">findAllUser!$A$1:$T$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">findUserByEmail!$A$1:$T$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">findUserById!$A$1:$T$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">findUserByUsername!$A$1:$T$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">saveUser!$A$1:$T$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">updateUser!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">findUserByEmail!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">findUserById!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">findUserByUsername!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">saveUser!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">updateUser!$A$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧!$A$1:$H$39</definedName>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -808,9 +808,6 @@
   </si>
   <si>
     <t>UTCID02</t>
-  </si>
-  <si>
-    <t>UTCID03</t>
   </si>
   <si>
     <t>null</t>
@@ -1374,69 +1371,33 @@
     <t>saveUser</t>
   </si>
   <si>
-    <t>Function26</t>
-  </si>
-  <si>
     <t>findUserById</t>
   </si>
   <si>
-    <t>Function27</t>
-  </si>
-  <si>
     <t>findUserByEmail</t>
   </si>
   <si>
-    <t>Function28</t>
-  </si>
-  <si>
     <t>findUserByUsername</t>
   </si>
   <si>
-    <t>Function29</t>
-  </si>
-  <si>
     <t>findAllUser</t>
   </si>
   <si>
-    <t>Function30</t>
-  </si>
-  <si>
     <t>updateUser</t>
   </si>
   <si>
-    <t>Function31</t>
-  </si>
-  <si>
     <t>changeUserRoll</t>
   </si>
   <si>
-    <t>Function32</t>
-  </si>
-  <si>
     <t>changePassword</t>
   </si>
   <si>
-    <t>Function33</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>RegisterForm</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
     <t>UserModel</t>
   </si>
   <si>
-    <t>UTCID04</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>UserId</t>
   </si>
   <si>
@@ -1467,46 +1428,67 @@
     <t>registed user emaill</t>
   </si>
   <si>
-    <t>unregisted email</t>
-  </si>
-  <si>
     <t>registed username</t>
   </si>
   <si>
-    <t>unregisted username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PasswordIncorrectException </t>
-  </si>
-  <si>
     <t>right old Password</t>
   </si>
   <si>
-    <t>wrong olf Password</t>
-  </si>
-  <si>
-    <t>invalid user Id</t>
-  </si>
-  <si>
     <t>Application Context Initialized</t>
   </si>
   <si>
     <t>exception</t>
   </si>
   <si>
-    <t>null exception</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
-    <t>role code</t>
-  </si>
-  <si>
-    <t>UTCID05</t>
-  </si>
-  <si>
-    <t>UTCID06</t>
+    <t>Function13</t>
+  </si>
+  <si>
+    <t>Function14</t>
+  </si>
+  <si>
+    <t>Function15</t>
+  </si>
+  <si>
+    <t>Function16</t>
+  </si>
+  <si>
+    <t>Function17</t>
+  </si>
+  <si>
+    <t>Function18</t>
+  </si>
+  <si>
+    <t>Function19</t>
+  </si>
+  <si>
+    <t>Function20</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>userId not null</t>
+  </si>
+  <si>
+    <t>userModel</t>
+  </si>
+  <si>
+    <t>"sdfhishfywgfsdk223423423"</t>
+  </si>
+  <si>
+    <t>"skjdhfkhsdfsfw43u48495"</t>
+  </si>
+  <si>
+    <t>address = "FU Hoa Lac"</t>
+  </si>
+  <si>
+    <t>user.getAddress() = "FU Hoa Lac"</t>
+  </si>
+  <si>
+    <t>role code = 2</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1499,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1904,11 +1886,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color indexed="9"/>
@@ -3189,7 +3166,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3403,7 +3380,7 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3645,14 +3622,11 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="14" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="1" fontId="24" fillId="24" borderId="77" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="44" fillId="29" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="32" borderId="13" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="13" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="32" borderId="13" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3673,10 +3647,13 @@
     <xf numFmtId="49" fontId="24" fillId="24" borderId="79" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3749,6 +3726,102 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -3767,110 +3840,20 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="65" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="76" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4128,10 +4111,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4552,10 +4535,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4838,7 +4821,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5266,7 +5249,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5843,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="64" customFormat="1" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="64" customFormat="1" ht="22.5">
@@ -5851,37 +5834,37 @@
     </row>
     <row r="3" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A3" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="72" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -5889,27 +5872,27 @@
     </row>
     <row r="11" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A11" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="75" customFormat="1" ht="15">
       <c r="A12" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5917,136 +5900,136 @@
     </row>
     <row r="17" spans="1:4" s="75" customFormat="1" ht="15">
       <c r="A17" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="73"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="73"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="73"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="73"/>
     </row>
@@ -6056,42 +6039,42 @@
     </row>
     <row r="41" spans="1:2" s="75" customFormat="1" ht="15">
       <c r="A41" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6106,10 +6089,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6133,55 +6116,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6190,137 +6173,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
+        <v>26</v>
+      </c>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
-        <v>26</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
-        <f>COUNTIF(F24:HF24,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
-        <f>COUNTIF(F24:HF24,"F")</f>
+      <c r="A7" s="235">
+        <f>COUNTIF(F22:HC22,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
+        <f>COUNTIF(F22:HC22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E23:HF23,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E21:HC21,"N")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E23:HF23,"A")</f>
-        <v>2</v>
+        <f>COUNTIF(E21:HC21,"A")</f>
+        <v>0</v>
       </c>
       <c r="N7" s="90">
-        <f>COUNTIF(E23:HF23,"B")</f>
+        <f>COUNTIF(E21:HC21,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="227">
-        <f>COUNTA(E9:HI9)</f>
-        <v>4</v>
-      </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="O7" s="240">
+        <f>COUNTA(E9:HF9)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6333,47 +6316,32 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="K11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -6382,246 +6350,167 @@
       <c r="D12" s="97"/>
       <c r="E12" s="100"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
-      <c r="B15" s="95"/>
+      <c r="B15" s="95" t="s">
+        <v>144</v>
+      </c>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>36</v>
-      </c>
+      <c r="D15" s="97"/>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="106" t="s">
+        <v>168</v>
+      </c>
       <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1">
+      <c r="F16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="102"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="102"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="106" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="117"/>
       <c r="D20" s="116"/>
       <c r="E20" s="118"/>
       <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="137" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="124" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G25" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H25" s="127">
-        <v>39140</v>
-      </c>
-      <c r="I25" s="127">
-        <v>39141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="11.25" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-    </row>
-    <row r="27" spans="1:10" ht="11.25" thickTop="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -6630,34 +6519,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -6672,10 +6542,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6699,55 +6569,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6756,111 +6626,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>29</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F24:HH24,"P")</f>
-        <v>6</v>
-      </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F24:HH24,"F")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F18:HC18,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E23:HH23,"N")</f>
+        <f>COUNTIF(E17:HC17,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E23:HH23,"A")</f>
-        <v>5</v>
+        <f>COUNTIF(E17:HC17,"A")</f>
+        <v>0</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E23:HH23,"B")</f>
+        <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HK8)</f>
-        <v>6</v>
-      </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HF8)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6873,57 +6743,32 @@
       <c r="F8" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="M10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -6932,313 +6777,133 @@
       <c r="D11" s="97"/>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
       <c r="D13" s="97" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
-      <c r="B14" s="95"/>
+      <c r="B14" s="95" t="s">
+        <v>154</v>
+      </c>
       <c r="C14" s="96"/>
-      <c r="D14" s="97">
-        <v>-1</v>
-      </c>
+      <c r="D14" s="97"/>
       <c r="E14" s="103"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="N14" s="89"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="99"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="137" t="s">
+      <c r="B17" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="124" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="139"/>
+      <c r="B18" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="139"/>
+      <c r="B19" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+      <c r="C19" s="244"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A20" s="140"/>
+      <c r="B20" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G25" s="127">
-        <v>39140</v>
-      </c>
-      <c r="H25" s="127">
-        <v>39141</v>
-      </c>
-      <c r="I25" s="127">
-        <v>39142</v>
-      </c>
-      <c r="J25" s="127">
-        <v>39143</v>
-      </c>
-      <c r="K25" s="127">
-        <v>39144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="11.25" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-    </row>
-    <row r="27" spans="1:11" ht="11.25" thickTop="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="84"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -7247,32 +6912,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:K23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:K22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F16">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7287,10 +6935,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7314,55 +6962,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -7371,137 +7019,137 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
+        <v>27</v>
+      </c>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
-        <v>27</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
-        <f>COUNTIF(F27:HE27,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
-        <f>COUNTIF(F27:HE27,"F")</f>
+      <c r="A7" s="235">
+        <f>COUNTIF(F22:HC22,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
+        <f>COUNTIF(F22:HC22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
-        <f>COUNTIF(E26:HE26,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E21:HC21,"N")</f>
+        <v>1</v>
       </c>
       <c r="M7" s="90">
-        <f>COUNTIF(E26:HE26,"A")</f>
+        <f>COUNTIF(E21:HC21,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="90">
+        <f>COUNTIF(E21:HC21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="240">
+        <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E26:HE26,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="227">
-        <f>COUNTA(E9:HH9)</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7514,42 +7162,32 @@
       <c r="F9" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="82"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97"/>
       <c r="E10" s="98"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="J11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -7558,261 +7196,165 @@
       <c r="D12" s="97"/>
       <c r="E12" s="100"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>169</v>
-      </c>
+      <c r="D15" s="97"/>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
-      <c r="G15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
+      <c r="B16" s="95" t="s">
+        <v>147</v>
+      </c>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="G16" s="102"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="136"/>
-      <c r="B17" s="95" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" s="95"/>
       <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="97" t="s">
+        <v>151</v>
+      </c>
       <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+      <c r="F17" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="136"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="97" t="s">
-        <v>167</v>
-      </c>
+      <c r="D18" s="97"/>
       <c r="E18" s="103"/>
-      <c r="F18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+      <c r="F18" s="99"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="95"/>
+      <c r="B19" s="95" t="s">
+        <v>146</v>
+      </c>
       <c r="C19" s="96"/>
-      <c r="D19" s="97" t="s">
-        <v>168</v>
-      </c>
+      <c r="D19" s="97"/>
       <c r="E19" s="103"/>
       <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="136"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+      <c r="D20" s="97" t="s">
+        <v>146</v>
+      </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="116"/>
+      <c r="F20" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
       <c r="E23" s="118"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="138"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A26" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="210" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="211" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A28" s="139"/>
-      <c r="B28" s="212" t="s">
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G28" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H28" s="127">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="11.25" thickBot="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-    </row>
-    <row r="30" spans="1:9" ht="11.25" thickTop="1">
-      <c r="A30" s="92"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -7821,34 +7363,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:H24 F25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7897,10 +7420,10 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="185" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="186"/>
       <c r="D4" s="186"/>
@@ -7908,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
@@ -7916,12 +7439,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="186" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="186"/>
       <c r="D5" s="186"/>
       <c r="E5" s="147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="149"/>
     </row>
@@ -7930,14 +7453,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="188" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="188"/>
       <c r="D6" s="188"/>
       <c r="E6" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="176">
+      <c r="F6" s="175">
         <v>42583</v>
       </c>
     </row>
@@ -7975,37 +7498,37 @@
       <c r="A11" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="177" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="178" t="s">
-        <v>124</v>
       </c>
       <c r="D11" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="178" t="s">
-        <v>125</v>
+      <c r="E11" s="177" t="s">
+        <v>124</v>
       </c>
       <c r="F11" s="173" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="163" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="179">
+      <c r="A12" s="178">
         <v>42583</v>
       </c>
       <c r="B12" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="D12" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="161" t="s">
         <v>127</v>
-      </c>
-      <c r="D12" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="161" t="s">
-        <v>128</v>
       </c>
       <c r="F12" s="162" t="s">
         <v>12</v>
@@ -8082,7 +7605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F11:F18"/>
     </sheetView>
   </sheetViews>
@@ -8124,7 +7647,7 @@
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
       <c r="E4" s="191" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="192"/>
       <c r="G4" s="192"/>
@@ -8138,7 +7661,7 @@
       <c r="C5" s="190"/>
       <c r="D5" s="190"/>
       <c r="E5" s="191" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="192"/>
       <c r="G5" s="192"/>
@@ -8146,7 +7669,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="A6" s="197" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="198"/>
       <c r="C6" s="198"/>
@@ -8166,7 +7689,7 @@
       <c r="C7" s="189"/>
       <c r="D7" s="189"/>
       <c r="E7" s="194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="195"/>
       <c r="G7" s="195"/>
@@ -8206,7 +7729,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>19</v>
@@ -8218,162 +7741,162 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="175">
+    <row r="11" spans="1:8" ht="13.5">
+      <c r="A11" s="174">
         <v>1</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>132</v>
+        <v>155</v>
+      </c>
+      <c r="F11" s="251" t="s">
+        <v>155</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="175">
+    <row r="12" spans="1:8" ht="13.5">
+      <c r="A12" s="174">
         <v>2</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="F12" s="251" t="s">
+        <v>156</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="175">
+    <row r="13" spans="1:8" ht="13.5">
+      <c r="A13" s="174">
         <v>3</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>136</v>
+        <v>157</v>
+      </c>
+      <c r="F13" s="251" t="s">
+        <v>157</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="175">
+    <row r="14" spans="1:8" ht="13.5">
+      <c r="A14" s="174">
         <v>4</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>138</v>
+        <v>158</v>
+      </c>
+      <c r="F14" s="251" t="s">
+        <v>158</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="175">
+    <row r="15" spans="1:8" ht="13.5">
+      <c r="A15" s="174">
         <v>5</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="F15" s="251" t="s">
+        <v>159</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="175">
+    <row r="16" spans="1:8" ht="13.5">
+      <c r="A16" s="174">
         <v>6</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>142</v>
+        <v>160</v>
+      </c>
+      <c r="F16" s="251" t="s">
+        <v>160</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="175">
+    <row r="17" spans="1:8" ht="13.5">
+      <c r="A17" s="174">
         <v>7</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>144</v>
+        <v>161</v>
+      </c>
+      <c r="F17" s="251" t="s">
+        <v>161</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="175">
+    <row r="18" spans="1:8" ht="13.5">
+      <c r="A18" s="174">
         <v>8</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="183" t="s">
-        <v>145</v>
+      <c r="C18" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>137</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="F18" s="251" t="s">
+        <v>162</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
@@ -8420,14 +7943,14 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" location="findUserByEmail!A1" display="Function28"/>
-    <hyperlink ref="F16" location="updateUser!A1" display="Function31"/>
-    <hyperlink ref="F11" location="saveUser!A1" display="Function26"/>
-    <hyperlink ref="F14" location="findUserByUsername!A1" display="Function29"/>
-    <hyperlink ref="F17" location="changeUserRoll!A1" display="Function32"/>
-    <hyperlink ref="F12" location="findUserById!A1" display="Function27"/>
-    <hyperlink ref="F15" location="findAllUser!A1" display="Function30"/>
-    <hyperlink ref="F18" location="changePassword!A1" display="Function33"/>
+    <hyperlink ref="F13" location="findUserByEmail!A1" display="Function15"/>
+    <hyperlink ref="F16" location="updateUser!A1" display="Function18"/>
+    <hyperlink ref="F11" location="saveUser!A1" display="Function13"/>
+    <hyperlink ref="F14" location="findUserByUsername!A1" display="Function16"/>
+    <hyperlink ref="F17" location="changeUserRoll!A1" display="Function19"/>
+    <hyperlink ref="F12" location="findUserById!A1" display="Function14"/>
+    <hyperlink ref="F15" location="findAllUser!A1" display="Function17"/>
+    <hyperlink ref="F18" location="changePassword!A1" display="Function20"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8442,7 +7965,7 @@
   <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8484,7 +8007,7 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="202" t="str">
         <f>表紙!B4</f>
@@ -8540,7 +8063,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="200" t="s">
         <v>23</v>
@@ -8591,7 +8114,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>24</v>
@@ -8603,24 +8126,24 @@
         <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="44" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="13.5">
       <c r="A12" s="46">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>132</v>
+      <c r="B12" s="251" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="47">
         <f>saveUser!A6</f>
@@ -8651,16 +8174,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="13.5">
       <c r="A13" s="46">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>134</v>
+      <c r="B13" s="251" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="47">
         <f>findUserById!A6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="47">
         <f>findUserById!C6</f>
@@ -8676,7 +8199,7 @@
       </c>
       <c r="G13" s="47">
         <f>findUserById!M6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="47">
         <f>findUserById!N6</f>
@@ -8684,19 +8207,19 @@
       </c>
       <c r="I13" s="47">
         <f>findUserById!O6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5">
       <c r="A14" s="46">
         <v>3</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>136</v>
+      <c r="B14" s="251" t="s">
+        <v>157</v>
       </c>
       <c r="C14" s="47">
         <f>findUserByEmail!A6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="47">
         <f>findUserByEmail!C6</f>
@@ -8708,11 +8231,11 @@
       </c>
       <c r="F14" s="48">
         <f>findUserByEmail!L6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="47">
         <f>findUserByEmail!M6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="47">
         <f>findUserByEmail!N6</f>
@@ -8720,19 +8243,19 @@
       </c>
       <c r="I14" s="47">
         <f>findUserByEmail!O6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5">
       <c r="A15" s="46">
         <v>4</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>138</v>
+      <c r="B15" s="251" t="s">
+        <v>158</v>
       </c>
       <c r="C15" s="47">
         <f>findUserByUsername!A6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="47">
         <f>findUserByUsername!C6</f>
@@ -8744,11 +8267,11 @@
       </c>
       <c r="F15" s="47">
         <f>findUserByUsername!L6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="47">
         <f>findUserByUsername!M6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="47">
         <f>findUserByUsername!N6</f>
@@ -8756,15 +8279,15 @@
       </c>
       <c r="I15" s="47">
         <f>findUserByUsername!O6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5">
       <c r="A16" s="46">
         <v>5</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>140</v>
+      <c r="B16" s="251" t="s">
+        <v>159</v>
       </c>
       <c r="C16" s="47">
         <f>findAllUser!A7</f>
@@ -8795,16 +8318,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="13.5">
       <c r="A17" s="46">
         <v>6</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>142</v>
+      <c r="B17" s="251" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="47">
         <f>updateUser!A7</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="47">
         <f>updateUser!C7</f>
@@ -8816,11 +8339,11 @@
       </c>
       <c r="F17" s="47">
         <f>updateUser!L7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="47">
         <f>updateUser!M7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="47">
         <f>updateUser!N7</f>
@@ -8828,19 +8351,19 @@
       </c>
       <c r="I17" s="47">
         <f>updateUser!O7</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5">
       <c r="A18" s="46">
         <v>7</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>144</v>
+      <c r="B18" s="251" t="s">
+        <v>161</v>
       </c>
       <c r="C18" s="47">
         <f>changeUserRoll!A6</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="47">
         <f>changeUserRoll!C6</f>
@@ -8856,7 +8379,7 @@
       </c>
       <c r="G18" s="47">
         <f>changeUserRoll!M6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="47">
         <f>changeUserRoll!N6</f>
@@ -8864,19 +8387,19 @@
       </c>
       <c r="I18" s="47">
         <f>changeUserRoll!O6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5">
       <c r="A19" s="46">
         <v>8</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>146</v>
+      <c r="B19" s="251" t="s">
+        <v>162</v>
       </c>
       <c r="C19" s="47">
         <f>changePassword!A7</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="47">
         <f>changePassword!C7</f>
@@ -8888,11 +8411,11 @@
       </c>
       <c r="F19" s="47">
         <f>changePassword!L7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="47">
         <f>changePassword!M7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="47">
         <f>changePassword!N7</f>
@@ -8900,7 +8423,7 @@
       </c>
       <c r="I19" s="47">
         <f>changePassword!O7</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8921,7 +8444,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -8933,11 +8456,11 @@
       </c>
       <c r="F21" s="50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -8945,7 +8468,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8980,7 +8503,7 @@
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="40"/>
       <c r="B24" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="62">
@@ -8997,12 +8520,12 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="B25" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>44.444444444444443</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -9010,11 +8533,11 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="B26" s="78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>55.555555555555557</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -9048,14 +8571,14 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" location="findUserByEmail!A1" display="Function28"/>
-    <hyperlink ref="B17" location="updateUser!A1" display="Function31"/>
-    <hyperlink ref="B12" location="saveUser!A1" display="Function26"/>
-    <hyperlink ref="B15" location="findUserByUsername!A1" display="Function29"/>
-    <hyperlink ref="B18" location="changeUserRoll!A1" display="Function32"/>
-    <hyperlink ref="B13" location="findUserById!A1" display="Function27"/>
-    <hyperlink ref="B16" location="findAllUser!A1" display="Function30"/>
-    <hyperlink ref="B19" location="changePassword!A1" display="Function33"/>
+    <hyperlink ref="B14" location="findUserByEmail!A1" display="Function15"/>
+    <hyperlink ref="B17" location="updateUser!A1" display="Function18"/>
+    <hyperlink ref="B12" location="saveUser!A1" display="Function13"/>
+    <hyperlink ref="B15" location="findUserByUsername!A1" display="Function16"/>
+    <hyperlink ref="B18" location="changeUserRoll!A1" display="Function19"/>
+    <hyperlink ref="B13" location="findUserById!A1" display="Function14"/>
+    <hyperlink ref="B16" location="findAllUser!A1" display="Function17"/>
+    <hyperlink ref="B19" location="changePassword!A1" display="Function20"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9068,10 +8591,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9095,55 +8618,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9152,111 +8675,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>28</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F24:HD24,"P")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F22:HD22,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F24:HD24,"F")</f>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F22:HD22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E23:HD23,"N")</f>
+        <f>COUNTIF(E21:HD21,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E23:HD23,"A")</f>
+        <f>COUNTIF(E21:HD21,"A")</f>
         <v>1</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E23:HD23,"B")</f>
+        <f>COUNTIF(E21:HD21,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="227">
+      <c r="O6" s="240">
         <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9278,10 +8801,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
@@ -9294,7 +8817,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -9322,7 +8845,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -9335,11 +8858,11 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="99"/>
       <c r="J14" s="89"/>
@@ -9349,15 +8872,15 @@
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
       <c r="G15" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -9365,146 +8888,140 @@
       <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
+      <c r="A17" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="103"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="183"/>
       <c r="F18" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="99"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="174" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="180"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="137" t="s">
+      <c r="B21" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="124" t="s">
+      <c r="G21" s="124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="211" t="s">
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+      <c r="G22" s="126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="212" t="s">
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G25" s="127">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="11.25" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-    </row>
-    <row r="27" spans="1:7" ht="11.25" thickTop="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9513,32 +9030,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -9553,10 +9053,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9580,55 +9080,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9637,111 +9137,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>27</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F25:HE25,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F25:HE25,"F")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F22:HD22,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F22:HD22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E24:HE24,"N")</f>
+        <f>COUNTIF(E21:HD21,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E24:HE24,"A")</f>
+        <f>COUNTIF(E21:HD21,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E21:HD21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E24:HE24,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HH8)</f>
-        <v>3</v>
-      </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9757,39 +9257,34 @@
       <c r="G8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="82"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="J10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -9799,7 +9294,6 @@
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -9809,34 +9303,31 @@
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
@@ -9848,191 +9339,149 @@
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
       <c r="G15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="99"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="102"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A18" s="137" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="180"/>
+      <c r="F18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
       <c r="A19" s="138"/>
       <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="138"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="116" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A24" s="137" t="s">
+      <c r="B21" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="210" t="s">
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="124" t="s">
+      <c r="G21" s="124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="211" t="s">
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126" t="s">
+      <c r="G22" s="126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="212" t="s">
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G26" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H26" s="127">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11.25" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-    </row>
-    <row r="28" spans="1:8" ht="11.25" thickTop="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10041,32 +9490,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10081,10 +9513,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10108,55 +9540,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10165,111 +9597,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>26</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F26:HF26,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F26:HF26,"F")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F22:HD22,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F22:HD22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E25:HF25,"N")</f>
+        <f>COUNTIF(E21:HD21,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E21:HD21,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E21:HD21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="90">
-        <f>COUNTIF(E25:HF25,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E25:HF25,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HI8)</f>
-        <v>4</v>
-      </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10285,44 +9717,34 @@
       <c r="G8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="82"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="K10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -10332,8 +9754,6 @@
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -10343,273 +9763,185 @@
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
       <c r="G15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A19" s="137" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="180"/>
+      <c r="F18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="138"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="116" t="s">
-        <v>172</v>
-      </c>
+      <c r="B21" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
       <c r="E23" s="118"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="210" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="211" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="212" t="s">
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G27" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H27" s="127">
-        <v>39140</v>
-      </c>
-      <c r="I27" s="127">
-        <v>39141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="11.25" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-    </row>
-    <row r="29" spans="1:9" ht="11.25" thickTop="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10618,32 +9950,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:I26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10658,10 +9973,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10685,55 +10000,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10742,111 +10057,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
         <v>26</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="216" t="s">
+      <c r="D5" s="231"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="216" t="s">
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="221"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="234"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="222">
-        <f>COUNTIF(F26:HF26,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="224">
-        <f>COUNTIF(F26:HF26,"F")</f>
+      <c r="A6" s="235">
+        <f>COUNTIF(F22:HD22,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="236"/>
+      <c r="C6" s="237">
+        <f>COUNTIF(F22:HD22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224">
+      <c r="D6" s="238"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="237">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E25:HF25,"N")</f>
+        <f>COUNTIF(E21:HD21,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E21:HD21,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E21:HD21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="240">
+        <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="90">
-        <f>COUNTIF(E25:HF25,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E25:HF25,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="227">
-        <f>COUNTA(E8:HI8)</f>
-        <v>4</v>
-      </c>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="228"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="241"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -10862,44 +10177,34 @@
       <c r="G8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="82"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="K10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -10909,8 +10214,6 @@
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -10920,273 +10223,185 @@
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
       <c r="G15" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A19" s="137" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="180"/>
+      <c r="F18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="138"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="138"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="116" t="s">
-        <v>171</v>
-      </c>
+      <c r="B21" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
       <c r="E23" s="118"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="138"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="210" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="211" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="212" t="s">
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="127">
-        <v>39139</v>
-      </c>
-      <c r="G27" s="127">
-        <v>39139</v>
-      </c>
-      <c r="H27" s="127">
-        <v>39140</v>
-      </c>
-      <c r="I27" s="127">
-        <v>39141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="11.25" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-    </row>
-    <row r="29" spans="1:9" ht="11.25" thickTop="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="84"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11195,32 +10410,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:I26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -11238,7 +10436,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -11262,55 +10460,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="211"/>
+      <c r="C2" s="212" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="F2" s="211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="214" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="243" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="F2" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="245" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="229" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="248" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="233" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -11319,116 +10517,116 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="225">
+        <v>300</v>
+      </c>
+      <c r="D4" s="226"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231">
-        <v>300</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="233" t="s">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="227">
+        <v>29</v>
+      </c>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="228"/>
+      <c r="P4" s="228"/>
+      <c r="Q4" s="228"/>
+      <c r="R4" s="228"/>
+      <c r="S4" s="228"/>
+      <c r="T4" s="229"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="236">
-        <v>29</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="229" t="s">
+      <c r="B5" s="218"/>
+      <c r="C5" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="246" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="247"/>
+      <c r="C6" s="230" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="231"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="239" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="214" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="216" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="216" t="s">
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="221"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="234"/>
       <c r="V6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222">
+      <c r="A7" s="235">
         <f>COUNTIF(F17:HC17,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224">
+      <c r="B7" s="236"/>
+      <c r="C7" s="237">
         <f>COUNTIF(F17:HC17,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224">
+      <c r="D7" s="238"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
       <c r="L7" s="90">
         <f>COUNTIF(E16:HC16,"N")</f>
         <v>1</v>
@@ -11441,15 +10639,15 @@
         <f>COUNTIF(E16:HC16,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="227">
+      <c r="O7" s="240">
         <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="228"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="238"/>
+      <c r="R7" s="238"/>
+      <c r="S7" s="238"/>
+      <c r="T7" s="241"/>
       <c r="U7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11468,10 +10666,10 @@
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="95" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="97"/>
@@ -11483,7 +10681,7 @@
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
       <c r="D11" s="97" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
@@ -11499,10 +10697,10 @@
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
       <c r="A13" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="109" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>61</v>
       </c>
       <c r="C13" s="110"/>
       <c r="D13" s="111"/>
@@ -11514,11 +10712,11 @@
       <c r="B14" s="114"/>
       <c r="C14" s="115"/>
       <c r="D14" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="181"/>
+        <v>143</v>
+      </c>
+      <c r="E14" s="180"/>
       <c r="F14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
@@ -11531,37 +10729,37 @@
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
       <c r="A16" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="124" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="124" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="139"/>
-      <c r="B17" s="211" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
+      <c r="B17" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="125"/>
       <c r="F17" s="126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="139"/>
-      <c r="B18" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
+      <c r="B18" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="244"/>
+      <c r="D18" s="244"/>
       <c r="E18" s="118"/>
       <c r="F18" s="127">
         <v>39139</v>
@@ -11569,11 +10767,11 @@
     </row>
     <row r="19" spans="1:6" ht="11.25" thickBot="1">
       <c r="A19" s="140"/>
-      <c r="B19" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
+      <c r="B19" s="245" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="128"/>
       <c r="F19" s="129"/>
     </row>
@@ -11585,6 +10783,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11593,25 +10810,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
